--- a/AAII_Financials/Quarterly/ALXO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALXO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
   <si>
     <t>ALXO</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,140 +665,167 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="I7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>500</v>
+      </c>
+      <c r="F8" s="3">
         <v>700</v>
       </c>
-      <c r="E8" s="3">
-        <v>4800</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J8" s="3">
         <v>1000</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>500</v>
+      </c>
+      <c r="F9" s="3">
         <v>600</v>
       </c>
-      <c r="E9" s="3">
-        <v>4400</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J9" s="3">
         <v>900</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>100</v>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E10" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+      <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
+        <v>200</v>
+      </c>
+      <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>100</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,37 +837,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F12" s="3">
         <v>3800</v>
       </c>
-      <c r="E12" s="3">
-        <v>16300</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
+        <v>6700</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I12" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J12" s="3">
         <v>3700</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +903,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,8 +938,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +973,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,66 +989,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F17" s="3">
         <v>5900</v>
       </c>
-      <c r="E17" s="3">
-        <v>24000</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
+        <v>8900</v>
+      </c>
+      <c r="H17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>5500</v>
+      </c>
+      <c r="J17" s="3">
         <v>5300</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5200</v>
       </c>
-      <c r="E18" s="3">
-        <v>-19200</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-4300</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,66 +1074,80 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-5100</v>
       </c>
-      <c r="E21" s="3">
-        <v>-18800</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I21" s="3">
         <v>-4100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+      <c r="J21" s="3">
+        <v>-4100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1074,57 +1155,69 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-5500</v>
       </c>
-      <c r="E23" s="3">
-        <v>-19200</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I23" s="3">
         <v>-4200</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>-4200</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1137,23 +1230,29 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,66 +1280,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-5500</v>
       </c>
-      <c r="E26" s="3">
-        <v>-19200</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-4200</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>-4200</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-7400</v>
       </c>
-      <c r="E27" s="3">
-        <v>-23300</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-5100</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1385,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1420,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1455,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,66 +1490,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-7400</v>
       </c>
-      <c r="E33" s="3">
-        <v>-23300</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-5100</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,71 +1595,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-7400</v>
       </c>
-      <c r="E35" s="3">
-        <v>-23300</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-5100</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="I38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1689,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,20 +1704,22 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>259500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>98100</v>
+      </c>
+      <c r="F41" s="3">
         <v>105000</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1560,8 +1735,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,20 +1770,26 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>500</v>
+      </c>
+      <c r="F43" s="3">
         <v>1200</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1618,8 +1805,14 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1647,20 +1840,26 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F45" s="3">
         <v>1200</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,20 +1875,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>262400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>100700</v>
+      </c>
+      <c r="F46" s="3">
         <v>107400</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1705,8 +1910,14 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1734,20 +1945,26 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
         <v>800</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1763,8 +1980,14 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1792,8 +2015,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +2050,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,20 +2085,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,8 +2120,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,20 +2155,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>262400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>103100</v>
+      </c>
+      <c r="F54" s="3">
         <v>108400</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2190,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2209,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,20 +2224,22 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1992,20 +2255,26 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,20 +2290,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2050,20 +2325,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F60" s="3">
         <v>4000</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2079,20 +2360,26 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F61" s="3">
         <v>4700</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2108,20 +2395,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>800</v>
+      </c>
+      <c r="F62" s="3">
         <v>600</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2137,8 +2430,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2465,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2500,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,20 +2535,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F66" s="3">
         <v>9300</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2253,8 +2570,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2589,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2620,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,19 +2655,25 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
         <v>175000</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2353,8 +2690,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,20 +2725,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-99700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-89600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-78200</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2411,8 +2760,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2795,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2830,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,20 +2865,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>252000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-84400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-75900</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2900,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,71 +2935,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="I80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-7400</v>
       </c>
-      <c r="E81" s="3">
-        <v>-23300</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-5100</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,37 +3029,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
         <v>100</v>
-      </c>
-      <c r="E83" s="3">
-        <v>400</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>100</v>
+      </c>
+      <c r="H83" s="3">
+        <v>100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +3095,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +3130,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +3165,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +3200,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,37 +3235,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-9000</v>
       </c>
-      <c r="E89" s="3">
-        <v>-14200</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J89" s="3">
         <v>-3900</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,8 +3289,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2857,28 +3300,34 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>100</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3355,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,37 +3390,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E94" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>100</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3444,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3475,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3510,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3545,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,37 +3580,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>170300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F100" s="3">
         <v>105000</v>
       </c>
-      <c r="E100" s="3">
-        <v>15400</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="G100" s="3">
+        <v>5900</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>9400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3151,33 +3650,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>161400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="F102" s="3">
         <v>96000</v>
       </c>
-      <c r="E102" s="3">
-        <v>800</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I102" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J102" s="3">
         <v>-4000</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALXO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALXO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
   <si>
     <t>ALXO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,62 +665,65 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -728,95 +731,101 @@
         <v>3</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1300</v>
       </c>
       <c r="I8" s="3">
         <v>1300</v>
       </c>
       <c r="J8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K8" s="3">
         <v>1000</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3">
         <v>500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>600</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1100</v>
       </c>
       <c r="H9" s="3">
         <v>1100</v>
       </c>
       <c r="I9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J9" s="3">
         <v>1200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>900</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
+      <c r="E10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
         <v>100</v>
       </c>
       <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
-      </c>
-      <c r="I10" s="3">
-        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
+      <c r="K10" s="3">
+        <v>100</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
@@ -824,8 +833,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,43 +851,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E12" s="3">
         <v>5300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3700</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,31 +925,34 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -944,8 +963,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1001,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,43 +1016,47 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E17" s="3">
         <v>9800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5300</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1035,34 +1064,37 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-10800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4300</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,8 +1108,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1085,11 +1118,11 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1102,8 +1135,8 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1111,8 +1144,11 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1120,25 +1156,25 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-11000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2900</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-4100</v>
       </c>
       <c r="J21" s="3">
         <v>-4100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
+      <c r="K21" s="3">
+        <v>-4100</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
@@ -1146,8 +1182,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1161,19 +1200,19 @@
         <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
@@ -1181,34 +1220,37 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-10100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-11300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3000</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-4200</v>
       </c>
       <c r="J23" s="3">
         <v>-4200</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
+      <c r="K23" s="3">
+        <v>-4200</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
@@ -1216,13 +1258,16 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1242,8 +1287,8 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
@@ -1251,8 +1296,11 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,34 +1334,37 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-11300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3000</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-4200</v>
       </c>
       <c r="J26" s="3">
         <v>-4200</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
+      <c r="K26" s="3">
+        <v>-4200</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
@@ -1321,43 +1372,49 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-14000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5100</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1448,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1486,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1524,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,8 +1562,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1505,11 +1574,11 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1522,8 +1591,8 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1531,43 +1600,49 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-14000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5100</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1676,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-14000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5100</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1775,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,23 +1791,24 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>434200</v>
+      </c>
+      <c r="E41" s="3">
         <v>259500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>98100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>105000</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1741,8 +1827,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,23 +1865,26 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>500</v>
       </c>
       <c r="F43" s="3">
+        <v>500</v>
+      </c>
+      <c r="G43" s="3">
         <v>1200</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,8 +1903,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1846,23 +1941,26 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
         <v>2400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1200</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1881,23 +1979,26 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>436000</v>
+      </c>
+      <c r="E46" s="3">
         <v>262400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>100700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>107400</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1916,8 +2017,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1951,23 +2055,26 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
       </c>
       <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
         <v>800</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1986,8 +2093,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2021,8 +2131,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2169,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,8 +2207,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2100,14 +2219,14 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>2400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2245,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,23 +2283,26 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>436100</v>
+      </c>
+      <c r="E54" s="3">
         <v>262400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>103100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>108400</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2196,8 +2321,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2339,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,23 +2355,24 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2261,23 +2391,26 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3">
         <v>2600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2296,23 +2429,26 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E59" s="3">
         <v>3200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,23 +2467,26 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E60" s="3">
         <v>7200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4000</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2366,23 +2505,26 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>3200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4700</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2401,8 +2543,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2410,14 +2555,14 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>600</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2436,8 +2581,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2619,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2657,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,23 +2695,26 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E66" s="3">
         <v>10400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9300</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,8 +2733,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2751,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2787,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2825,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2670,13 +2837,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
         <v>175000</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2696,8 +2863,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,23 +2901,26 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-118500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-99700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-89600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-78200</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2766,8 +2939,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2977,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3015,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,23 +3053,26 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>429800</v>
+      </c>
+      <c r="E76" s="3">
         <v>252000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-84400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-75900</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2906,8 +3091,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3129,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-14000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5100</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,8 +3228,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3040,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -3057,8 +3255,8 @@
       <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>100</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -3066,8 +3264,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3302,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3340,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3378,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3416,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,43 +3454,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-9000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3900</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,8 +3510,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3306,28 +3526,31 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3584,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,43 +3622,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>600</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3678,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3714,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3752,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3790,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,34 +3828,37 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>188400</v>
+      </c>
+      <c r="E100" s="3">
         <v>170300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>105000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5900</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>9400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
@@ -3621,8 +3866,11 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,39 +3904,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>174700</v>
+      </c>
+      <c r="E102" s="3">
         <v>161400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>96000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALXO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALXO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
   <si>
     <t>ALXO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,69 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -734,34 +738,37 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1200</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1300</v>
       </c>
       <c r="J8" s="3">
         <v>1300</v>
       </c>
       <c r="K8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L8" s="3">
         <v>1000</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -771,35 +778,38 @@
       <c r="E9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3">
         <v>500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>600</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1100</v>
       </c>
       <c r="I9" s="3">
         <v>1100</v>
       </c>
       <c r="J9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>900</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,26 +819,26 @@
       <c r="E10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
+      <c r="F10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>100</v>
       </c>
       <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>200</v>
-      </c>
-      <c r="J10" s="3">
-        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
+      <c r="L10" s="3">
+        <v>100</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
@@ -836,8 +846,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,46 +865,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E12" s="3">
         <v>12100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3700</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,17 +945,20 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>600</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -954,8 +974,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -966,8 +986,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1004,8 +1027,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,46 +1043,50 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E17" s="3">
         <v>18400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5300</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1064,37 +1094,40 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-9800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-10800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4300</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,8 +1142,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1118,14 +1152,14 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1138,8 +1172,8 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1147,8 +1181,11 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1156,28 +1193,28 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-9900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-11000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2900</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-4100</v>
       </c>
       <c r="K21" s="3">
         <v>-4100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
+      <c r="L21" s="3">
+        <v>-4100</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
@@ -1185,13 +1222,16 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
@@ -1203,19 +1243,19 @@
         <v>200</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1223,37 +1263,40 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-18600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-10100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3000</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-4200</v>
       </c>
       <c r="K23" s="3">
         <v>-4200</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
+      <c r="L23" s="3">
+        <v>-4200</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
@@ -1261,17 +1304,20 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1290,8 +1336,8 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
@@ -1299,8 +1345,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,37 +1386,40 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-18800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-10200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3000</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-4200</v>
       </c>
       <c r="K26" s="3">
         <v>-4200</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
+      <c r="L26" s="3">
+        <v>-4200</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
@@ -1375,46 +1427,52 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-18800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-14000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5100</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,8 +1632,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1574,14 +1644,14 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1594,8 +1664,8 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1603,46 +1673,52 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-18800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-14000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5100</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,89 +1755,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-18800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-14000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5100</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,26 +1878,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>429900</v>
+      </c>
+      <c r="E41" s="3">
         <v>434200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>259500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>98100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>105000</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,8 +1917,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1868,26 +1958,29 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E43" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>500</v>
       </c>
       <c r="G43" s="3">
+        <v>500</v>
+      </c>
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1906,8 +1999,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1944,26 +2040,29 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E45" s="3">
         <v>1800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1200</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1982,26 +2081,29 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>432300</v>
+      </c>
+      <c r="E46" s="3">
         <v>436000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>262400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>100700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>107400</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,8 +2122,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2058,26 +2163,29 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
         <v>100</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
       <c r="F48" s="3">
         <v>0</v>
       </c>
       <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
         <v>800</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,8 +2204,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2134,8 +2245,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,26 +2327,29 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>2400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2248,8 +2368,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,26 +2409,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>432900</v>
+      </c>
+      <c r="E54" s="3">
         <v>436100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>262400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>103100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>108400</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2324,8 +2450,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,26 +2486,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>7400</v>
       </c>
       <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2394,26 +2525,29 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3">
+      <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3">
         <v>2600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>900</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2432,26 +2566,29 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E59" s="3">
         <v>6200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2470,26 +2607,29 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E60" s="3">
         <v>6200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4000</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2508,26 +2648,29 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>3200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4700</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2546,26 +2689,29 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
       </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>600</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2730,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,26 +2853,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E66" s="3">
         <v>6200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9300</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,8 +2894,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2840,13 +3008,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>175000</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2866,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,26 +3075,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-132700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-118500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-99700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-89600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-78200</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2942,8 +3116,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,26 +3239,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>418500</v>
+      </c>
+      <c r="E76" s="3">
         <v>429800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>252000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-84400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-75900</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3280,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,89 +3321,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-18800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-14000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5100</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,8 +3427,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3241,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -3258,8 +3457,8 @@
       <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>100</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3267,8 +3466,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,46 +3671,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-13600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3900</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,8 +3731,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3529,28 +3750,31 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,8 +3852,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3634,37 +3864,40 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>600</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,37 +4074,40 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>800</v>
+      </c>
+      <c r="E100" s="3">
         <v>188400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>170300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>105000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5900</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>9400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
@@ -3869,8 +4115,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3907,42 +4156,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E102" s="3">
         <v>174700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>161400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>96000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALXO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALXO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
   <si>
     <t>ALXO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,73 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -741,34 +745,37 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1200</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1300</v>
       </c>
       <c r="K8" s="3">
         <v>1300</v>
       </c>
       <c r="L8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M8" s="3">
         <v>1000</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -781,35 +788,38 @@
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="3">
         <v>500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>600</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1100</v>
       </c>
       <c r="J9" s="3">
         <v>1100</v>
       </c>
       <c r="K9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L9" s="3">
         <v>1200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>900</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -822,26 +832,26 @@
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
+      <c r="G10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>100</v>
       </c>
       <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
         <v>200</v>
-      </c>
-      <c r="K10" s="3">
-        <v>100</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
+      <c r="M10" s="3">
+        <v>100</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
@@ -849,8 +859,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,49 +879,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E12" s="3">
         <v>9800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>12100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3700</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,20 +965,23 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>600</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -977,8 +997,8 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -989,8 +1009,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,8 +1053,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,49 +1070,53 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E17" s="3">
         <v>14200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5300</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1094,40 +1124,43 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-18400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-10800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4300</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,8 +1176,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1155,14 +1189,14 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1175,8 +1209,8 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1184,8 +1218,11 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1193,31 +1230,31 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-18400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-9900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-11000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2900</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-4100</v>
       </c>
       <c r="L21" s="3">
         <v>-4100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
+      <c r="M21" s="3">
+        <v>-4100</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
@@ -1225,8 +1262,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1234,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
@@ -1246,19 +1286,19 @@
         <v>200</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
@@ -1266,40 +1306,43 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-14200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-18600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-10100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-11300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3000</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-4200</v>
       </c>
       <c r="L23" s="3">
         <v>-4200</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
+      <c r="M23" s="3">
+        <v>-4200</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
@@ -1307,8 +1350,11 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1316,11 +1362,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1339,8 +1385,8 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
@@ -1348,8 +1394,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,40 +1438,43 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-14200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-18800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-10200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3000</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-4200</v>
       </c>
       <c r="L26" s="3">
         <v>-4200</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
+      <c r="M26" s="3">
+        <v>-4200</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
@@ -1430,49 +1482,55 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-14200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-18800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-14000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5100</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,8 +1702,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1647,14 +1717,14 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1667,8 +1737,8 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1676,49 +1746,55 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-14200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-18800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-14000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5100</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,95 +1834,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-14200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-18800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-14000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5100</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,29 +1965,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>410000</v>
+      </c>
+      <c r="E41" s="3">
         <v>429900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>434200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>259500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>98100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>105000</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,8 +2007,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1961,29 +2051,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F43" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>500</v>
       </c>
       <c r="H43" s="3">
+        <v>500</v>
+      </c>
+      <c r="I43" s="3">
         <v>1200</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2002,8 +2095,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2043,29 +2139,32 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E45" s="3">
         <v>2500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1200</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2084,29 +2183,32 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>412300</v>
+      </c>
+      <c r="E46" s="3">
         <v>432300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>436000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>262400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>100700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>107400</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2227,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2166,29 +2271,32 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
         <v>100</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
       <c r="G48" s="3">
         <v>0</v>
       </c>
       <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
         <v>800</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2207,8 +2315,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2248,8 +2359,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,29 +2447,32 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E52" s="3">
         <v>500</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>2400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2371,8 +2491,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,29 +2535,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>421300</v>
+      </c>
+      <c r="E54" s="3">
         <v>432900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>436100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>262400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>103100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>108400</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2453,8 +2579,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,29 +2617,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E57" s="3">
         <v>7400</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,29 +2659,32 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3">
         <v>2600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>900</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2569,29 +2703,32 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E59" s="3">
         <v>6700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,29 +2747,32 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E60" s="3">
         <v>14100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4000</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,29 +2791,32 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>500</v>
+      </c>
+      <c r="E61" s="3">
         <v>100</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>3200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4700</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2692,29 +2835,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>600</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +2879,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,29 +3011,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E66" s="3">
         <v>14400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9300</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,8 +3055,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3011,13 +3179,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>175000</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3037,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,29 +3249,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-149000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-132700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-118500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-99700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-89600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-78200</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3119,8 +3293,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,29 +3425,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>405000</v>
+      </c>
+      <c r="E76" s="3">
         <v>418500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>429800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>252000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-84400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-75900</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3283,8 +3469,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,95 +3513,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-14200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-18800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-14000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5100</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,8 +3626,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3443,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -3460,8 +3659,8 @@
       <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>100</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -3469,8 +3668,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,49 +3888,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-13600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-9500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3900</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,8 +3952,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3753,28 +3974,31 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,8 +4082,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3867,37 +4097,40 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>600</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,40 +4320,43 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>700</v>
+      </c>
+      <c r="E100" s="3">
         <v>800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>188400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>170300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>105000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5900</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>9400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
@@ -4118,8 +4364,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4159,45 +4408,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>174700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>161400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>96000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4000</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALXO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALXO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
   <si>
     <t>ALXO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,77 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -748,34 +752,37 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1200</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1300</v>
       </c>
       <c r="L8" s="3">
         <v>1300</v>
       </c>
       <c r="M8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N8" s="3">
         <v>1000</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -791,35 +798,38 @@
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>600</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1100</v>
       </c>
       <c r="K9" s="3">
         <v>1100</v>
       </c>
       <c r="L9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M9" s="3">
         <v>1200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>900</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,26 +845,26 @@
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
+      <c r="H10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>100</v>
       </c>
       <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
         <v>200</v>
-      </c>
-      <c r="L10" s="3">
-        <v>100</v>
       </c>
       <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
+      <c r="N10" s="3">
+        <v>100</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
@@ -862,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,52 +893,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E12" s="3">
         <v>11200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>12100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3700</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -979,12 +999,12 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1000,8 +1020,8 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1012,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,52 +1097,56 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E17" s="3">
         <v>16300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5300</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1124,43 +1154,46 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-14200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-18400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-10800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4300</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1192,14 +1226,14 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1212,8 +1246,8 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
@@ -1221,8 +1255,11 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1230,34 +1267,34 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-14200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-18400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-9900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-11000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2900</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-4100</v>
       </c>
       <c r="M21" s="3">
         <v>-4100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
+      <c r="N21" s="3">
+        <v>-4100</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
@@ -1265,8 +1302,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1277,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
@@ -1289,19 +1329,19 @@
         <v>200</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
@@ -1309,43 +1349,46 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-16300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-14200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-18600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-10100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3000</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-4200</v>
       </c>
       <c r="M23" s="3">
         <v>-4200</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
+      <c r="N23" s="3">
+        <v>-4200</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
@@ -1353,8 +1396,11 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1365,11 +1411,11 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1388,8 +1434,8 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
@@ -1397,8 +1443,11 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,43 +1490,46 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-16300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-18800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-10200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3000</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-4200</v>
       </c>
       <c r="M26" s="3">
         <v>-4200</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
+      <c r="N26" s="3">
+        <v>-4200</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
@@ -1485,52 +1537,58 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-16300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-14200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-18800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-10800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-14000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5100</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1720,14 +1790,14 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1740,8 +1810,8 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
@@ -1749,52 +1819,58 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-16300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-14200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-18800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-10800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-14000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5100</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-16300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-14200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-18800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-10800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-14000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5100</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,32 +2052,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>385100</v>
+      </c>
+      <c r="E41" s="3">
         <v>410000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>429900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>434200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>259500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>98100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>105000</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2010,8 +2097,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2054,8 +2144,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2065,21 +2158,21 @@
       <c r="E43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G43" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>500</v>
       </c>
       <c r="I43" s="3">
+        <v>500</v>
+      </c>
+      <c r="J43" s="3">
         <v>1200</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2191,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2142,32 +2238,35 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E45" s="3">
         <v>2300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1200</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2186,32 +2285,35 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>389000</v>
+      </c>
+      <c r="E46" s="3">
         <v>412300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>432300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>436000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>262400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>100700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>107400</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2230,8 +2332,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2274,32 +2379,35 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E48" s="3">
         <v>200</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
       <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
         <v>100</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
       <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
         <v>800</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2318,8 +2426,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2362,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,32 +2567,35 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E52" s="3">
         <v>8800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>500</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>2400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2494,8 +2614,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,32 +2661,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>399700</v>
+      </c>
+      <c r="E54" s="3">
         <v>421300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>432900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>436100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>262400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>103100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>108400</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2708,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,32 +2748,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E57" s="3">
         <v>5800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7400</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2662,8 +2793,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2671,23 +2805,23 @@
         <v>400</v>
       </c>
       <c r="E58" s="3">
+        <v>400</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
         <v>2600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>900</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2706,32 +2840,35 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E59" s="3">
         <v>7700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2750,32 +2887,35 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E60" s="3">
         <v>14000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4000</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,32 +2934,35 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>400</v>
+      </c>
+      <c r="E61" s="3">
         <v>500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>100</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>3200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4700</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2838,32 +2981,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>600</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2882,8 +3028,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,32 +3169,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E66" s="3">
         <v>16300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9300</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3058,8 +3216,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3182,13 +3350,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>175000</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3208,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,32 +3423,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-173500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-149000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-132700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-118500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-99700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-89600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-78200</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3296,8 +3470,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,32 +3611,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>385200</v>
+      </c>
+      <c r="E76" s="3">
         <v>405000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>418500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>429800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>252000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-84400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-75900</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3658,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-16300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-14200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-18800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-10800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-14000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5100</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3645,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -3662,8 +3861,8 @@
       <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="N83" s="3">
+        <v>100</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
@@ -3671,8 +3870,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-20600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-13600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3900</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,13 +4173,14 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3977,28 +4198,31 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,13 +4312,16 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4100,37 +4330,40 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>600</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,43 +4566,46 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>188400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>170300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>105000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>5900</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>9400</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
@@ -4367,8 +4613,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4411,48 +4660,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-19900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>174700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>161400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>96000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALXO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALXO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
   <si>
     <t>ALXO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,80 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -755,34 +758,37 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1200</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1300</v>
       </c>
       <c r="M8" s="3">
         <v>1300</v>
       </c>
       <c r="N8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O8" s="3">
         <v>1000</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -801,35 +807,38 @@
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3">
         <v>500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>600</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1100</v>
       </c>
       <c r="L9" s="3">
         <v>1100</v>
       </c>
       <c r="M9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N9" s="3">
         <v>1200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>900</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,26 +857,26 @@
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
+      <c r="I10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>100</v>
       </c>
       <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
         <v>200</v>
-      </c>
-      <c r="M10" s="3">
-        <v>100</v>
       </c>
       <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
+      <c r="O10" s="3">
+        <v>100</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
@@ -875,8 +884,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,55 +906,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E12" s="3">
         <v>18200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>11200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>12100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3700</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,13 +1004,16 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -1002,12 +1021,12 @@
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>600</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1023,8 +1042,8 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1035,8 +1054,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1104,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,55 +1123,59 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E17" s="3">
         <v>24600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>16300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>18400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5300</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,46 +1183,49 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-16300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-14200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-18400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-9800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-10800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4300</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1243,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1229,14 +1262,14 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1249,8 +1282,8 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
@@ -1258,8 +1291,11 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,37 +1303,37 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-16300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-14200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-18400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-9900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-11000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2900</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-4100</v>
       </c>
       <c r="N21" s="3">
         <v>-4100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
+      <c r="O21" s="3">
+        <v>-4100</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
@@ -1305,8 +1341,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1320,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
@@ -1332,19 +1371,19 @@
         <v>200</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
@@ -1352,46 +1391,49 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-24600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-16300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-14200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-18600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-10100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3000</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-4200</v>
       </c>
       <c r="N23" s="3">
         <v>-4200</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
+      <c r="O23" s="3">
+        <v>-4200</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
@@ -1399,8 +1441,11 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1414,11 +1459,11 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1437,8 +1482,8 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
@@ -1446,8 +1491,11 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,46 +1541,49 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-24600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-16300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-14200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-18800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-10200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3000</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-4200</v>
       </c>
       <c r="N26" s="3">
         <v>-4200</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
+      <c r="O26" s="3">
+        <v>-4200</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
@@ -1540,55 +1591,61 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-24600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-16300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-14200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-18800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-14000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5100</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1691,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1741,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1791,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1841,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1793,14 +1862,14 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1813,8 +1882,8 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
@@ -1822,55 +1891,61 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-24600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-16300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-14200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-18800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-10800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-14000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5100</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1991,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-24600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-16300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-14200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-18800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-10800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-14000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5100</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2118,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,35 +2138,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>363700</v>
+      </c>
+      <c r="E41" s="3">
         <v>385100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>410000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>429900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>434200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>259500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>98100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>105000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,8 +2186,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2236,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2161,21 +2253,21 @@
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H43" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>500</v>
       </c>
       <c r="J43" s="3">
+        <v>500</v>
+      </c>
+      <c r="K43" s="3">
         <v>1200</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,8 +2286,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,35 +2336,38 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E45" s="3">
         <v>3800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,35 +2386,38 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>367000</v>
+      </c>
+      <c r="E46" s="3">
         <v>389000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>412300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>432300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>436000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>262400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>100700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>107400</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2335,8 +2436,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,8 +2486,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2391,26 +2498,26 @@
         <v>3400</v>
       </c>
       <c r="E48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F48" s="3">
         <v>200</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
       <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
         <v>100</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
       <c r="I48" s="3">
         <v>0</v>
       </c>
       <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
         <v>800</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2429,8 +2536,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2586,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2636,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,35 +2686,38 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E52" s="3">
         <v>7400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>500</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>2400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2736,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,35 +2786,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>380200</v>
+      </c>
+      <c r="E54" s="3">
         <v>399700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>421300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>432900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>436100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>262400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>103100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>108400</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2711,8 +2836,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2858,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,35 +2878,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E57" s="3">
         <v>3700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7400</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,8 +2926,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2808,23 +2941,23 @@
         <v>400</v>
       </c>
       <c r="F58" s="3">
+        <v>400</v>
+      </c>
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
         <v>2600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>900</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2843,35 +2976,38 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E59" s="3">
         <v>8400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,35 +3026,38 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E60" s="3">
         <v>12500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4000</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2937,35 +3076,38 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
         <v>400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>100</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>3200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4700</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2984,35 +3126,38 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>600</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,8 +3176,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3226,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3276,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,35 +3326,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E66" s="3">
         <v>14600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9300</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +3376,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3398,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3446,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3496,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3353,13 +3520,13 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
         <v>175000</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -3379,8 +3546,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,35 +3596,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-202000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-173500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-149000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-132700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-118500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-99700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-89600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-78200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3646,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3696,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3746,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,35 +3796,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>363000</v>
+      </c>
+      <c r="E76" s="3">
         <v>385200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>405000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>418500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>429800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>252000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-84400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-75900</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +3846,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3896,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-24600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-16300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-14200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-18800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-10800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-14000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5100</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4023,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3847,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -3864,8 +4062,8 @@
       <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>100</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
@@ -3873,8 +4071,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4121,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4171,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4221,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4271,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4321,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-24900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-20600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-13600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-9000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3900</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,17 +4393,18 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -4201,28 +4421,31 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4491,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,17 +4541,20 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -4333,37 +4562,40 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>600</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4613,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4661,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4711,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4761,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,46 +4811,49 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>188400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>170300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>105000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5900</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>9400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
@@ -4616,8 +4861,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +4911,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-24800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-19900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>174700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>161400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>96000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4000</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALXO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALXO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="92">
   <si>
     <t>ALXO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,84 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -761,34 +765,37 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1200</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1300</v>
       </c>
       <c r="N8" s="3">
         <v>1300</v>
       </c>
       <c r="O8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P8" s="3">
         <v>1000</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -810,35 +817,38 @@
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="3">
         <v>500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>600</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1100</v>
       </c>
       <c r="M9" s="3">
         <v>1100</v>
       </c>
       <c r="N9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O9" s="3">
         <v>1200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>900</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -860,26 +870,26 @@
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
+      <c r="J10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
       </c>
       <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
         <v>200</v>
-      </c>
-      <c r="N10" s="3">
-        <v>100</v>
       </c>
       <c r="O10" s="3">
         <v>100</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
+      <c r="P10" s="3">
+        <v>100</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
@@ -887,8 +897,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,58 +920,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E12" s="3">
         <v>20900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>18200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>11200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>12100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3700</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,16 +1024,19 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -1024,12 +1044,12 @@
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>600</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1045,8 +1065,8 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1057,8 +1077,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1107,8 +1130,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,58 +1150,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E17" s="3">
         <v>28500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>24600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>16300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>18400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5300</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1183,49 +1213,52 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-24600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-16300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-14200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-18400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-9800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-10800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4300</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,8 +1277,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1265,14 +1299,14 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1285,8 +1319,8 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
@@ -1294,8 +1328,11 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1303,40 +1340,40 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-24600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-16300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-14200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-18400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-9900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-11000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2900</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-4100</v>
       </c>
       <c r="O21" s="3">
         <v>-4100</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
+      <c r="P21" s="3">
+        <v>-4100</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
@@ -1344,8 +1381,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1362,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
@@ -1374,19 +1414,19 @@
         <v>200</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
@@ -1394,49 +1434,52 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-28500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-24600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-16300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-14200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-18600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3000</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-4200</v>
       </c>
       <c r="O23" s="3">
         <v>-4200</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
+      <c r="P23" s="3">
+        <v>-4200</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
@@ -1444,13 +1487,16 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1462,11 +1508,11 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1485,8 +1531,8 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
@@ -1494,8 +1540,11 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,49 +1593,52 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-28400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-24600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-16300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-14200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-18800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-10200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3000</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-4200</v>
       </c>
       <c r="O26" s="3">
         <v>-4200</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
+      <c r="P26" s="3">
+        <v>-4200</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
@@ -1594,58 +1646,64 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-28400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-24600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-16300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-14200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-18800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-10800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-14000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5100</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,8 +1911,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1865,14 +1935,14 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1885,8 +1955,8 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
@@ -1894,58 +1964,64 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-28400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-24600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-16300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-14200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-18800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-10800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-14000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5100</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,113 +2070,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-28400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-24600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-16300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-14200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-18800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-10800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-14000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5100</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,38 +2225,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>159100</v>
+      </c>
+      <c r="E41" s="3">
         <v>363700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>385100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>410000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>429900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>434200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>259500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>98100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>105000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,31 +2276,34 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>157500</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2239,8 +2329,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2256,21 +2349,21 @@
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I43" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>500</v>
       </c>
       <c r="K43" s="3">
+        <v>500</v>
+      </c>
+      <c r="L43" s="3">
         <v>1200</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,8 +2382,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2339,38 +2435,41 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E45" s="3">
         <v>3400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2389,38 +2488,41 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>321500</v>
+      </c>
+      <c r="E46" s="3">
         <v>367000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>389000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>412300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>432300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>436000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>262400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>100700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>107400</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2439,31 +2541,34 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>25100</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2489,38 +2594,41 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3400</v>
+        <v>7000</v>
       </c>
       <c r="E48" s="3">
         <v>3400</v>
       </c>
       <c r="F48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G48" s="3">
         <v>200</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
       <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
       <c r="J48" s="3">
         <v>0</v>
       </c>
       <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
         <v>800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2539,8 +2647,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2589,8 +2700,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,38 +2806,41 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E52" s="3">
         <v>9800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>500</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>2400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2739,8 +2859,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,38 +2912,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>363700</v>
+      </c>
+      <c r="E54" s="3">
         <v>380200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>399700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>421300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>432900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>436100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>262400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>103100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>108400</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2839,8 +2965,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,38 +3009,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E57" s="3">
         <v>3800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7400</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2000</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2929,8 +3060,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2944,23 +3078,23 @@
         <v>400</v>
       </c>
       <c r="G58" s="3">
+        <v>400</v>
+      </c>
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3">
         <v>2600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>900</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2979,38 +3113,41 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E59" s="3">
         <v>11100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,8 +3166,11 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3038,29 +3178,29 @@
         <v>15300</v>
       </c>
       <c r="E60" s="3">
+        <v>15300</v>
+      </c>
+      <c r="F60" s="3">
         <v>12500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>14100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4000</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3079,38 +3219,41 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>200</v>
+      </c>
+      <c r="E61" s="3">
         <v>300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>100</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>3200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4700</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3129,38 +3272,41 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>600</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3179,8 +3325,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,38 +3484,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E66" s="3">
         <v>17100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9300</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3379,8 +3537,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3523,13 +3691,13 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>175000</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,38 +3770,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-226500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-202000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-173500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-149000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-132700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-118500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-99700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-89600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-78200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,8 +3823,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,38 +3982,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>343600</v>
+      </c>
+      <c r="E76" s="3">
         <v>363000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>385200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>405000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>418500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>429800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>252000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-84400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-75900</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3849,8 +4035,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,113 +4088,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-28400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-24600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-16300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-14200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-18800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-10800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-14000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5100</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,13 +4222,14 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4048,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -4065,8 +4264,8 @@
       <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+      <c r="P83" s="3">
+        <v>100</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
@@ -4074,8 +4273,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,58 +4538,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-17500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-24900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-20600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-13600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3900</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,20 +4614,21 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -4424,28 +4645,31 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,20 +4771,23 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-183900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -4565,37 +4795,40 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>600</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,49 +5057,52 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>188400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>170300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>105000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5900</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>9400</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
@@ -4864,8 +5110,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4914,54 +5163,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-204500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-21500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-24800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-19900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>174700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>161400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>96000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4000</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALXO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALXO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="92">
   <si>
     <t>ALXO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -768,34 +772,37 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1200</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1300</v>
       </c>
       <c r="O8" s="3">
         <v>1300</v>
       </c>
       <c r="P8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1000</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -820,35 +827,38 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3">
         <v>500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>600</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1100</v>
       </c>
       <c r="N9" s="3">
         <v>1100</v>
       </c>
       <c r="O9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P9" s="3">
         <v>1200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>900</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -873,26 +883,26 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
+      <c r="K10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
         <v>100</v>
       </c>
       <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
         <v>200</v>
-      </c>
-      <c r="O10" s="3">
-        <v>100</v>
       </c>
       <c r="P10" s="3">
         <v>100</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
+      <c r="Q10" s="3">
+        <v>100</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
@@ -900,8 +910,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,61 +934,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E12" s="3">
         <v>17100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>20900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>18200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>11200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>9800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>12100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3700</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,19 +1044,22 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1047,12 +1067,12 @@
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>600</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1068,8 +1088,8 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1080,8 +1100,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1133,8 +1156,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,114 +1177,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E17" s="3">
         <v>24700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>28500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>24600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>16300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5300</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
         <v>-28500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-24600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-16300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-14200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-18400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,16 +1311,17 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1302,14 +1336,14 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1322,8 +1356,8 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
@@ -1331,52 +1365,55 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
         <v>-28400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-24600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-16300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-14200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-18400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-9900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-11000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2900</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-4100</v>
       </c>
       <c r="P21" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
+      <c r="Q21" s="3">
+        <v>-4100</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
@@ -1384,8 +1421,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1405,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
@@ -1417,19 +1457,19 @@
         <v>200</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
@@ -1437,52 +1477,55 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-24500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-28500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-24600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-16300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-14200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-18600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3000</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-4200</v>
       </c>
       <c r="P23" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
+      <c r="Q23" s="3">
+        <v>-4200</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
@@ -1490,16 +1533,19 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1511,11 +1557,11 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1534,8 +1580,8 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
@@ -1543,8 +1589,11 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,52 +1645,55 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-24500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-28400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-24600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-16300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-14200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-18800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3000</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-4200</v>
       </c>
       <c r="P26" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
+      <c r="Q26" s="3">
+        <v>-4200</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
@@ -1649,61 +1701,67 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-24500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-28400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-24600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-16300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-14200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-18800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-14000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1808,8 +1869,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,16 +1981,19 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
+      <c r="E32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1938,14 +2008,14 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1958,8 +2028,8 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
@@ -1967,61 +2037,67 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-24500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-28400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-24600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-16300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-14200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-18800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-14000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-24500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-28400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-24600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-16300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-14200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-18800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-14000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,41 +2312,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>66400</v>
+      </c>
+      <c r="E41" s="3">
         <v>159100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>363700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>385100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>410000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>429900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>434200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>259500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>98100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>105000</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2279,17 +2366,20 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>247000</v>
+      </c>
+      <c r="E42" s="3">
         <v>157500</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2305,8 +2395,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2332,8 +2422,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2352,21 +2445,21 @@
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J43" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>500</v>
       </c>
       <c r="L43" s="3">
+        <v>500</v>
+      </c>
+      <c r="M43" s="3">
         <v>1200</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2385,8 +2478,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2438,41 +2534,44 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E45" s="3">
         <v>4900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1200</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,41 +2590,44 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>316800</v>
+      </c>
+      <c r="E46" s="3">
         <v>321500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>367000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>389000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>412300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>432300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>436000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>262400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>100700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>107400</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2544,17 +2646,20 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E47" s="3">
         <v>25100</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2570,8 +2675,8 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2597,41 +2702,44 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E48" s="3">
         <v>7000</v>
-      </c>
-      <c r="E48" s="3">
-        <v>3400</v>
       </c>
       <c r="F48" s="3">
         <v>3400</v>
       </c>
       <c r="G48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H48" s="3">
         <v>200</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
       <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
       <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
         <v>800</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2758,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2703,8 +2814,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,8 +2926,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2818,32 +2938,32 @@
         <v>10100</v>
       </c>
       <c r="E52" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F52" s="3">
         <v>9800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>500</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>2400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2862,8 +2982,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,41 +3038,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>346000</v>
+      </c>
+      <c r="E54" s="3">
         <v>363700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>380200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>399700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>421300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>432900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>436100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>262400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>103100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>108400</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2968,8 +3094,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,41 +3140,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E57" s="3">
         <v>5100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7400</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2000</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3063,8 +3194,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3081,23 +3215,23 @@
         <v>400</v>
       </c>
       <c r="H58" s="3">
+        <v>400</v>
+      </c>
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
         <v>2600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>900</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3116,41 +3250,44 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E59" s="3">
         <v>9700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3169,41 +3306,44 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15300</v>
+        <v>24000</v>
       </c>
       <c r="E60" s="3">
         <v>15300</v>
       </c>
       <c r="F60" s="3">
+        <v>15300</v>
+      </c>
+      <c r="G60" s="3">
         <v>12500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>14000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>14100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4000</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3222,41 +3362,44 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>100</v>
+      </c>
+      <c r="E61" s="3">
         <v>200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>100</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>3200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4700</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3275,41 +3418,44 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E62" s="3">
         <v>4600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>600</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3328,8 +3474,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,41 +3642,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E66" s="3">
         <v>20100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9300</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3540,8 +3698,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3694,13 +3862,13 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>175000</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -3720,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,41 +3944,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-259400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-226500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-202000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-173500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-149000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-132700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-118500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-99700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-89600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-78200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3826,8 +4000,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,41 +4168,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>316300</v>
+      </c>
+      <c r="E76" s="3">
         <v>343600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>363000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>385200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>405000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>418500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>429800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>252000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-84400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-75900</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4038,8 +4224,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-24500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-28400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-24600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-16300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-14200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-18800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-14000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,8 +4421,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4232,7 +4431,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -4250,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -4267,8 +4466,8 @@
       <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+      <c r="Q83" s="3">
+        <v>100</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
@@ -4276,8 +4475,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,61 +4755,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-20700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-17500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-24900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-20600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-13600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-9500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,23 +4835,24 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -4648,28 +4869,31 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,23 +5001,26 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-76100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-183900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -4798,37 +5028,40 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>600</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4901,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,52 +5303,55 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>188400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>170300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>105000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5900</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>9400</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
@@ -5113,8 +5359,11 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5166,57 +5415,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-92700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-204500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-21500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-24800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-19900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>174700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>161400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>96000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALXO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALXO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
   <si>
     <t>ALXO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,88 +665,92 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -756,8 +760,8 @@
       <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -775,34 +779,37 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1200</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1300</v>
       </c>
       <c r="P8" s="3">
         <v>1300</v>
       </c>
       <c r="Q8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R8" s="3">
         <v>1000</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -830,35 +837,38 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3">
         <v>500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>600</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1100</v>
       </c>
       <c r="O9" s="3">
         <v>1100</v>
       </c>
       <c r="P9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q9" s="3">
         <v>1200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>900</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -886,26 +896,26 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
+      <c r="L10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
         <v>100</v>
       </c>
       <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
         <v>200</v>
-      </c>
-      <c r="P10" s="3">
-        <v>100</v>
       </c>
       <c r="Q10" s="3">
         <v>100</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
+      <c r="R10" s="3">
+        <v>100</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
@@ -913,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E12" s="3">
         <v>26700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>17100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>20900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>18200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>11200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>9800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>12100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3700</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,11 +1078,11 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -1070,12 +1090,12 @@
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>600</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1091,8 +1111,8 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1103,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,64 +1204,68 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E17" s="3">
         <v>33800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>24700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>28500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>24600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>16300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5300</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,53 +1275,56 @@
       <c r="E18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3">
         <v>-28500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-24600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-16300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-14200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-18400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4300</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1323,8 +1357,8 @@
       <c r="E20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1339,14 +1373,14 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1359,8 +1393,8 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
@@ -1368,8 +1402,11 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1379,44 +1416,44 @@
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
         <v>-28400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-24600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-16300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-14200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-18400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-9900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-11000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2900</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-4100</v>
       </c>
       <c r="Q21" s="3">
         <v>-4100</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
+      <c r="R21" s="3">
+        <v>-4100</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
@@ -1424,8 +1461,11 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1448,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
@@ -1460,19 +1500,19 @@
         <v>200</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
@@ -1480,55 +1520,58 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-32900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-24500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-28500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-24600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-16300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-14200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-18600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3000</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-4200</v>
       </c>
       <c r="Q23" s="3">
         <v>-4200</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
+      <c r="R23" s="3">
+        <v>-4200</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
@@ -1536,8 +1579,11 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1547,8 +1593,8 @@
       <c r="E24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1560,11 +1606,11 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1583,8 +1629,8 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
@@ -1592,8 +1638,11 @@
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,55 +1697,58 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-32900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-24500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-28400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-24600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-16300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-14200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-18800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3000</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-4200</v>
       </c>
       <c r="Q26" s="3">
         <v>-4200</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
+      <c r="R26" s="3">
+        <v>-4200</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
@@ -1704,64 +1756,70 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-32900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-24500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-28400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-24600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-16300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-14200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-18800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-14000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5100</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1872,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1995,8 +2065,8 @@
       <c r="E32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2011,14 +2081,14 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2031,8 +2101,8 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
@@ -2040,64 +2110,70 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-32900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-24500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-28400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-24600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-16300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-14200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-18800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-14000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5100</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-32900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-24500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-28400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-24600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-16300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-14200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-18800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-14000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5100</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,44 +2399,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>49100</v>
+      </c>
+      <c r="E41" s="3">
         <v>66400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>159100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>363700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>385100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>410000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>429900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>434200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>259500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>98100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>105000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2369,20 +2456,23 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>235900</v>
+      </c>
+      <c r="E42" s="3">
         <v>247000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>157500</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2398,8 +2488,8 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2425,44 +2515,47 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>500</v>
       </c>
       <c r="M43" s="3">
+        <v>500</v>
+      </c>
+      <c r="N43" s="3">
         <v>1200</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2481,8 +2574,11 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2537,44 +2633,47 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E45" s="3">
         <v>3500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2593,44 +2692,47 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>290800</v>
+      </c>
+      <c r="E46" s="3">
         <v>316800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>321500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>367000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>389000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>412300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>432300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>436000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>262400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>100700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>107400</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,20 +2751,23 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E47" s="3">
         <v>10900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>25100</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2678,8 +2783,8 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2705,44 +2810,47 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E48" s="3">
         <v>8200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7000</v>
-      </c>
-      <c r="F48" s="3">
-        <v>3400</v>
       </c>
       <c r="G48" s="3">
         <v>3400</v>
       </c>
       <c r="H48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
       <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
       <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
         <v>800</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2761,8 +2869,11 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2817,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,44 +3046,47 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="E52" s="3">
         <v>10100</v>
       </c>
       <c r="F52" s="3">
+        <v>10100</v>
+      </c>
+      <c r="G52" s="3">
         <v>9800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>500</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>2400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2985,8 +3105,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,44 +3164,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>317700</v>
+      </c>
+      <c r="E54" s="3">
         <v>346000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>363700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>380200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>399700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>421300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>432900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>436100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>262400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>103100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>108400</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3097,8 +3223,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,44 +3271,45 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E57" s="3">
         <v>8700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7400</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2000</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3197,8 +3328,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3218,23 +3352,23 @@
         <v>400</v>
       </c>
       <c r="I58" s="3">
+        <v>400</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
         <v>2600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>900</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3253,44 +3387,47 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E59" s="3">
         <v>14800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3309,44 +3446,47 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E60" s="3">
         <v>24000</v>
-      </c>
-      <c r="E60" s="3">
-        <v>15300</v>
       </c>
       <c r="F60" s="3">
         <v>15300</v>
       </c>
       <c r="G60" s="3">
+        <v>15300</v>
+      </c>
+      <c r="H60" s="3">
         <v>12500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>14000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>14100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4000</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3365,44 +3505,47 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>100</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>3200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4700</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3421,44 +3564,47 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E62" s="3">
         <v>5700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>600</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3477,8 +3623,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,44 +3800,47 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E66" s="3">
         <v>29700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>20100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>17100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9300</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3701,8 +3859,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3865,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="M70" s="3">
         <v>175000</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
@@ -3891,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,44 +4118,47 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-294800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-259400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-226500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-202000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-173500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-149000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-132700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-118500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-99700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-89600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-78200</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,44 +4354,47 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>287000</v>
+      </c>
+      <c r="E76" s="3">
         <v>316300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>343600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>363000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>385200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>405000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>418500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>429800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>252000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-84400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-75900</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4227,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-32900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-24500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-28400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-24600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-16300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-14200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-18800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-14000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5100</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4434,7 +4633,7 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -4452,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
@@ -4469,8 +4668,8 @@
       <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
+      <c r="R83" s="3">
+        <v>100</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
@@ -4478,8 +4677,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-17000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-20700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-17500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-24900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-20600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-13600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3900</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,26 +5056,27 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -4872,28 +5093,31 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,26 +5231,29 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-76100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-183900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -5031,37 +5261,40 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>600</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,55 +5549,58 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>188400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>170300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>105000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>5900</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>9400</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
@@ -5362,8 +5608,11 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5418,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-92700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-204500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-21500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-24800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-19900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>174700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>161400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>96000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4000</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALXO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALXO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="92">
   <si>
     <t>ALXO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,99 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -763,11 +770,11 @@
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -782,34 +789,40 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1000</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -840,35 +853,41 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3">
         <v>500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>900</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -899,35 +918,41 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>100</v>
-      </c>
-      <c r="O10" s="3">
-        <v>100</v>
-      </c>
-      <c r="P10" s="3">
-        <v>200</v>
       </c>
       <c r="Q10" s="3">
         <v>100</v>
       </c>
       <c r="R10" s="3">
+        <v>200</v>
+      </c>
+      <c r="S10" s="3">
         <v>100</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
+      <c r="T10" s="3">
+        <v>100</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,67 +974,75 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F12" s="3">
         <v>29400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>26700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>17100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>20900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>18200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>11200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>9800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>12100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>5300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>7700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>3800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>6700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>2200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>3600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>3700</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,41 +1100,47 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
         <v>600</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1114,11 +1153,11 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1126,8 +1165,14 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1230,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,67 +1256,75 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>32200</v>
+      </c>
+      <c r="F17" s="3">
         <v>36700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>33800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>24700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>28500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>24600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>16300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>14200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>18400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>9800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>11300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>8900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>4300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>5500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>5300</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1278,53 +1337,59 @@
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3">
         <v>-28500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-24600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-16300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-14200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-18400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-9800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-10800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-5200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-7700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-4200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-4300</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1411,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1360,11 +1427,11 @@
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1376,17 +1443,17 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1396,17 +1463,23 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1419,61 +1492,67 @@
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <v>-28400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-24600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-16300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-14200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-18400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-9900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-11000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-5100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-7600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-4100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-4100</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1491,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
@@ -1503,13 +1582,13 @@
         <v>200</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1517,90 +1596,102 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-35300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-32900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-24500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-28500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-24600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-16300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-14200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-18600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-10100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-11300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-5500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-7800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-4200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-4200</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
+      <c r="E24" s="3">
+        <v>100</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1609,14 +1700,14 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1632,17 +1723,23 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1797,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-35300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-32900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-24500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-28400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-24600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-16300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-14200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-18800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-10200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-11300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-5500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-7800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-4200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-4200</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-35300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-32900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-24500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-28400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-24600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-16300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-14200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-18800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-10800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-14000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-7400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-8800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-5200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-5100</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1992,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +2057,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2122,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2187,14 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2068,11 +2207,11 @@
       <c r="F32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -2084,17 +2223,17 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2104,76 +2243,88 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-35300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-32900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-24500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-28400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-24600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-16300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-14200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-18800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-10800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-14000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-7400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-8800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-5200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-5100</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2382,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-35300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-32900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-24500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-28400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-24600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-16300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-14200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-18800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-10800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-14000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-7400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-8800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-5200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-5100</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2546,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,50 +2571,52 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>63200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>48800</v>
+      </c>
+      <c r="F41" s="3">
         <v>49100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>66400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>159100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>363700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>385100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>410000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>429900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>434200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>259500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>98100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>105000</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2459,26 +2632,32 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>164800</v>
+      </c>
+      <c r="E42" s="3">
+        <v>217400</v>
+      </c>
+      <c r="F42" s="3">
         <v>235900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>247000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>157500</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,11 +2670,11 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2518,8 +2697,14 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2548,20 +2733,20 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1200</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2577,8 +2762,14 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,50 +2827,56 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F45" s="3">
         <v>5900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>4900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>3400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>3800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>2400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>2000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1200</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2695,50 +2892,56 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>232500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>271000</v>
+      </c>
+      <c r="F46" s="3">
         <v>290800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>316800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>321500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>367000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>389000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>412300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>432300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>436000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>262400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>100700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>107400</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2754,26 +2957,32 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F47" s="3">
         <v>8200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>10900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>25100</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2786,11 +2995,11 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2813,50 +3022,56 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F48" s="3">
         <v>8600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>8200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>7000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>3400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>200</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
       <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
         <v>800</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2872,8 +3087,14 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3152,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3217,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,50 +3282,56 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F52" s="3">
         <v>10000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>10100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>10100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>9800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>7400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>8800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>500</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>2400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>200</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3108,8 +3347,14 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,50 +3412,56 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>278100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>306500</v>
+      </c>
+      <c r="F54" s="3">
         <v>317700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>346000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>363700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>380200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>399700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>421300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>432900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>436100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>262400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>103100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>108400</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3226,8 +3477,14 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3506,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,50 +3531,52 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F57" s="3">
         <v>5900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>8700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>5100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>5800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>7400</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>1400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2000</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3331,16 +3592,22 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F58" s="3">
         <v>400</v>
@@ -3355,26 +3622,26 @@
         <v>400</v>
       </c>
       <c r="J58" s="3">
+        <v>400</v>
+      </c>
+      <c r="K58" s="3">
+        <v>400</v>
+      </c>
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3">
         <v>2600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>900</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3390,50 +3657,56 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F59" s="3">
         <v>19000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>14800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>9700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>11100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>8400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>7700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>6700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>6200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3449,50 +3722,56 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>28300</v>
+      </c>
+      <c r="F60" s="3">
         <v>25200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>24000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>15300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>15300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>12500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>14000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>14100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>6200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>7200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>7700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4000</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3508,50 +3787,56 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="E61" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>100</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>3200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>3900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>4700</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3567,50 +3852,56 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F62" s="3">
         <v>5500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>5700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>4600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>200</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>600</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3626,8 +3917,14 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3982,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +4047,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,50 +4112,56 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>43000</v>
+      </c>
+      <c r="F66" s="3">
         <v>30700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>29700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>20100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>17100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>14600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>16300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>14400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>10400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>12500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>9300</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3862,8 +4177,14 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4206,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4267,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4332,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4036,17 +4371,17 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>175000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>175000</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -4062,8 +4397,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,50 +4462,56 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-355700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-325500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-294800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-259400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-226500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-202000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-173500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-149000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-132700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-118500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-99700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-89600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-78200</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4180,8 +4527,14 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4592,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4657,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,50 +4722,56 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>240400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>263500</v>
+      </c>
+      <c r="F76" s="3">
         <v>287000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>316300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>343600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>363000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>385200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>405000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>418500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>429800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>252000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-84400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-75900</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4416,8 +4787,14 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4852,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-35300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-32900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-24500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-28400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-24600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-16300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-14200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-18800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-10800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-14000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-7400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-8800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-5200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-5100</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,13 +5016,15 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -4636,10 +5033,10 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -4654,10 +5051,10 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O83" s="3">
         <v>100</v>
@@ -4671,17 +5068,23 @@
       <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
+      <c r="S83" s="3">
+        <v>100</v>
+      </c>
+      <c r="T83" s="3">
+        <v>100</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +5142,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5207,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5272,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5337,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5402,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-30900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-17000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-20700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-17500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-24900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-20600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-5100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-13600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-9500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-6200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-9000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-2900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-4300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-3900</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,32 +5496,34 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-600</v>
       </c>
       <c r="G91" s="3">
         <v>-300</v>
       </c>
       <c r="H91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -5096,28 +5537,34 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5622,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5687,79 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>10900</v>
+      </c>
+      <c r="F94" s="3">
         <v>13700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-76100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-183900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-4500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>600</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5781,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5842,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5907,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5972,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +6037,14 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5561,58 +6052,64 @@
         <v>-100</v>
       </c>
       <c r="E100" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>188400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>170300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>105000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>5900</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>9400</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
+      <c r="T100" s="3">
+        <v>0</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +6167,75 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-17300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-92700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-204500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-21500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-24800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-19900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-4400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>174700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>161400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-6900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>96000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>3100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>4800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-4000</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALXO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALXO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="92">
   <si>
     <t>ALXO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,99 +665,103 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -776,8 +780,8 @@
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -795,34 +799,37 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1200</v>
-      </c>
-      <c r="R8" s="3">
-        <v>1300</v>
       </c>
       <c r="S8" s="3">
         <v>1300</v>
       </c>
       <c r="T8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U8" s="3">
         <v>1000</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -859,35 +866,38 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3">
         <v>500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>600</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>1100</v>
       </c>
       <c r="R9" s="3">
         <v>1100</v>
       </c>
       <c r="S9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T9" s="3">
         <v>1200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>900</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -924,26 +934,26 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
         <v>100</v>
       </c>
       <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
         <v>200</v>
-      </c>
-      <c r="S10" s="3">
-        <v>100</v>
       </c>
       <c r="T10" s="3">
         <v>100</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>3</v>
+      <c r="U10" s="3">
+        <v>100</v>
       </c>
       <c r="V10" s="3" t="s">
         <v>3</v>
@@ -951,8 +961,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,73 +989,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E12" s="3">
         <v>24800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>25200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>29400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>26700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>17100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>20900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>18200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>12100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>6700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>3600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>3700</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1106,19 +1123,22 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1126,11 +1146,11 @@
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -1138,12 +1158,12 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
         <v>600</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1159,8 +1179,8 @@
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1171,8 +1191,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1236,8 +1259,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,73 +1284,77 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>32200</v>
+        <v>36800</v>
       </c>
       <c r="E17" s="3">
         <v>32200</v>
       </c>
       <c r="F17" s="3">
+        <v>32200</v>
+      </c>
+      <c r="G17" s="3">
         <v>36700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>33800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>24700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>28500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>24600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5300</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1343,53 +1373,56 @@
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
         <v>-28500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-24600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-16300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-14200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-18400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-10800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-7700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4300</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1413,8 +1446,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1433,8 +1467,8 @@
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1449,14 +1483,14 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1469,8 +1503,8 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
+      <c r="U20" s="3">
+        <v>0</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
@@ -1478,8 +1512,11 @@
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1498,44 +1535,44 @@
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>-28400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-24600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-16300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-14200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-18400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-9900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-11000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-7600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2900</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-4100</v>
       </c>
       <c r="T21" s="3">
         <v>-4100</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
+      <c r="U21" s="3">
+        <v>-4100</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
@@ -1543,19 +1580,22 @@
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="E22" s="3">
+        <v>400</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1576,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>200</v>
@@ -1588,19 +1628,19 @@
         <v>200</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>3</v>
@@ -1608,64 +1648,67 @@
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-30200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-30600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-35300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-32900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-24500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-28500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-24600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-16300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-14200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-18600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-11300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3000</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-4200</v>
       </c>
       <c r="T23" s="3">
         <v>-4200</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
+      <c r="U23" s="3">
+        <v>-4200</v>
       </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
@@ -1673,28 +1716,31 @@
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1706,11 +1752,11 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1729,8 +1775,8 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
+      <c r="U24" s="3">
+        <v>0</v>
       </c>
       <c r="V24" s="3" t="s">
         <v>3</v>
@@ -1738,8 +1784,11 @@
       <c r="W24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1803,64 +1852,67 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-30200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-30700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-35300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-32900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-24500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-28400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-24600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-16300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-14200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-18800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-11300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3000</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-4200</v>
       </c>
       <c r="T26" s="3">
         <v>-4200</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
+      <c r="U26" s="3">
+        <v>-4200</v>
       </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
@@ -1868,73 +1920,79 @@
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-30200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-30700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-35300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-32900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-24500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-28400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-24600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-16300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-14200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-18800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-14000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-8800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-5100</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1998,8 +2056,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2063,8 +2124,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2128,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2193,8 +2260,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2213,8 +2283,8 @@
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2229,14 +2299,14 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2249,8 +2319,8 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
+      <c r="U32" s="3">
+        <v>0</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
@@ -2258,73 +2328,79 @@
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-30200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-30700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-35300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-32900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-24500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-28400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-24600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-16300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-14200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-18800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-10800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-14000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-8800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-5100</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2388,143 +2464,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-30200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-30700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-35300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-32900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-24500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-28400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-24600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-16300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-14200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-18800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-10800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-14000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-8800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-5100</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2548,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2573,53 +2659,54 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E41" s="3">
         <v>63200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>48800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>49100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>66400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>159100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>363700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>385100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>410000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>429900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>434200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>259500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>98100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>105000</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2638,29 +2725,32 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>174800</v>
+      </c>
+      <c r="E42" s="3">
         <v>164800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>217400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>235900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>247000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>157500</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2676,8 +2766,8 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2703,8 +2793,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2739,17 +2832,17 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>500</v>
       </c>
       <c r="P43" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q43" s="3">
         <v>1200</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2768,8 +2861,11 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2833,53 +2929,56 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E45" s="3">
         <v>4600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1200</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,53 +2997,56 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>219600</v>
+      </c>
+      <c r="E46" s="3">
         <v>232500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>271000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>290800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>316800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>321500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>367000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>389000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>412300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>432300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>436000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>262400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>100700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>107400</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2963,29 +3065,32 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E47" s="3">
         <v>28200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>16700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>8200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>10900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>25100</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3001,8 +3106,8 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -3028,53 +3133,56 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E48" s="3">
         <v>9600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>3400</v>
       </c>
       <c r="J48" s="3">
         <v>3400</v>
       </c>
       <c r="K48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L48" s="3">
         <v>200</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
       <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
         <v>100</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
       <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
         <v>800</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3093,8 +3201,11 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3158,8 +3269,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3223,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3288,53 +3405,56 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E52" s="3">
         <v>7800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10000</v>
-      </c>
-      <c r="G52" s="3">
-        <v>10100</v>
       </c>
       <c r="H52" s="3">
         <v>10100</v>
       </c>
       <c r="I52" s="3">
+        <v>10100</v>
+      </c>
+      <c r="J52" s="3">
         <v>9800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>500</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>2400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>200</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3353,8 +3473,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3418,53 +3541,56 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>245900</v>
+      </c>
+      <c r="E54" s="3">
         <v>278100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>306500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>317700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>346000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>363700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>380200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>399700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>421300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>432900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>436100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>262400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>103100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>108400</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3483,8 +3609,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3508,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3533,53 +3663,54 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E57" s="3">
         <v>9800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7400</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
         <v>1400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2000</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3598,19 +3729,22 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>300</v>
-      </c>
-      <c r="F58" s="3">
-        <v>400</v>
       </c>
       <c r="G58" s="3">
         <v>400</v>
@@ -3628,23 +3762,23 @@
         <v>400</v>
       </c>
       <c r="L58" s="3">
+        <v>400</v>
+      </c>
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3">
         <v>2600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>900</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3663,53 +3797,56 @@
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E59" s="3">
         <v>11900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>19000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3728,53 +3865,56 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E60" s="3">
         <v>21900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>28300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>25200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>24000</v>
-      </c>
-      <c r="H60" s="3">
-        <v>15300</v>
       </c>
       <c r="I60" s="3">
         <v>15300</v>
       </c>
       <c r="J60" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K60" s="3">
         <v>12500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4000</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3793,8 +3933,11 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3802,44 +3945,44 @@
         <v>9500</v>
       </c>
       <c r="E61" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F61" s="3">
         <v>9400</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>100</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>3200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4700</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3858,53 +4001,56 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E62" s="3">
         <v>6400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>200</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
       <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
         <v>800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>600</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3923,8 +4069,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3988,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4053,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4118,53 +4273,56 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E66" s="3">
         <v>37800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>43000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>30700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>29700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>20100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>17100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9300</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4183,8 +4341,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4208,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4273,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4338,8 +4503,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4377,13 +4545,13 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="P70" s="3">
         <v>175000</v>
       </c>
       <c r="Q70" s="3">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="R70" s="3">
         <v>0</v>
@@ -4403,8 +4571,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4468,53 +4639,56 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-389800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-355700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-325500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-294800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-259400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-226500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-202000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-173500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-149000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-132700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-118500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-99700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-89600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-78200</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4533,8 +4707,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4598,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4663,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4728,53 +4911,56 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>212700</v>
+      </c>
+      <c r="E76" s="3">
         <v>240400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>263500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>287000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>316300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>343600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>363000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>385200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>405000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>418500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>429800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>252000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-84400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-75900</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4793,8 +4979,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4858,143 +5047,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-30200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-30700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-35300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-32900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-24500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-28400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-24600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-16300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-14200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-18800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-10800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-14000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-8800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-5100</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5018,8 +5216,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5027,7 +5226,7 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -5039,7 +5238,7 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -5057,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
@@ -5074,8 +5273,8 @@
       <c r="T83" s="3">
         <v>100</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
+      <c r="U83" s="3">
+        <v>100</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
@@ -5083,8 +5282,11 @@
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5148,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5213,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5278,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5343,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5408,73 +5622,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-27800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-20700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-30900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-17000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-20700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-17500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-24900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-20600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-13600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-9500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-3900</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5498,35 +5718,36 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -5543,28 +5764,31 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5628,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5693,35 +5920,38 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E94" s="3">
         <v>42300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>10900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>13700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-76100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-183900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -5729,37 +5959,40 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>600</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5783,8 +6016,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5848,8 +6082,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5913,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5978,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6043,64 +6286,67 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>9500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>188400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>170300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>105000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>5900</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>9400</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
+      <c r="U100" s="3">
+        <v>0</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
@@ -6108,8 +6354,11 @@
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6173,69 +6422,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E102" s="3">
         <v>14400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-17300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-92700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-204500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-21500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-24800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-19900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>174700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>161400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>96000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-4000</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALXO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALXO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="92">
   <si>
     <t>ALXO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,127 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -802,34 +806,37 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1200</v>
-      </c>
-      <c r="S8" s="3">
-        <v>1300</v>
       </c>
       <c r="T8" s="3">
         <v>1300</v>
       </c>
       <c r="U8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V8" s="3">
         <v>1000</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -869,35 +876,38 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3">
         <v>500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>600</v>
-      </c>
-      <c r="R9" s="3">
-        <v>1100</v>
       </c>
       <c r="S9" s="3">
         <v>1100</v>
       </c>
       <c r="T9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U9" s="3">
         <v>1200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>900</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,26 +947,26 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3">
         <v>100</v>
       </c>
       <c r="S10" s="3">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
         <v>200</v>
-      </c>
-      <c r="T10" s="3">
-        <v>100</v>
       </c>
       <c r="U10" s="3">
         <v>100</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>3</v>
+      <c r="V10" s="3">
+        <v>100</v>
       </c>
       <c r="W10" s="3" t="s">
         <v>3</v>
@@ -964,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -990,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>45800</v>
+      </c>
+      <c r="E12" s="3">
         <v>29500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>24800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>25200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>29400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>26700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>17100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>20900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>18200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>12100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>5300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>3600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>3700</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1137,11 +1157,11 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -1149,11 +1169,11 @@
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
@@ -1161,12 +1181,12 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
         <v>600</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1182,8 +1202,8 @@
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1194,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1262,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E17" s="3">
         <v>36800</v>
-      </c>
-      <c r="E17" s="3">
-        <v>32200</v>
       </c>
       <c r="F17" s="3">
         <v>32200</v>
       </c>
       <c r="G17" s="3">
+        <v>32200</v>
+      </c>
+      <c r="H17" s="3">
         <v>36700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>33800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>24700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>28500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>24600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5300</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+      <c r="E18" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-33800</v>
       </c>
       <c r="J18" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-28500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-24600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-16300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-14200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-18400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-7700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-4300</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,31 +1480,32 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="E20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I20" s="3">
+        <v>900</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1486,14 +1520,14 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1506,8 +1540,8 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
+      <c r="V20" s="3">
+        <v>0</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
@@ -1515,67 +1549,70 @@
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-35200</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-32800</v>
       </c>
       <c r="J21" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-28400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-24600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-16300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-14200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-18400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-9900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-7600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2900</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-4100</v>
       </c>
       <c r="U21" s="3">
         <v>-4100</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
+      <c r="V21" s="3">
+        <v>-4100</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
@@ -1583,8 +1620,11 @@
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1594,11 +1634,11 @@
       <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="F22" s="3">
+        <v>400</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1619,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
         <v>200</v>
@@ -1631,19 +1671,19 @@
         <v>200</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>3</v>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>3</v>
@@ -1651,67 +1691,70 @@
       <c r="X22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-34200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-30200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-30600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-35300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-32900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-24500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-28500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-24600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-16300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-14200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-18600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-10100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3000</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-4200</v>
       </c>
       <c r="U23" s="3">
         <v>-4200</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
+      <c r="V23" s="3">
+        <v>-4200</v>
       </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
@@ -1719,8 +1762,11 @@
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1730,20 +1776,20 @@
       <c r="E24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1755,11 +1801,11 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -1778,8 +1824,8 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
+      <c r="V24" s="3">
+        <v>0</v>
       </c>
       <c r="W24" s="3" t="s">
         <v>3</v>
@@ -1787,8 +1833,11 @@
       <c r="X24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,67 +1904,70 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-34200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-30200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-30700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-35300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-32900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-24500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-28400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-24600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-16300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-14200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-18800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-10200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3000</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-4200</v>
       </c>
       <c r="U26" s="3">
         <v>-4200</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
+      <c r="V26" s="3">
+        <v>-4200</v>
       </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
@@ -1923,76 +1975,82 @@
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-34200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-30200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-30700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-35300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-32900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-24500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-28400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-24600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-16300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-14200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-18800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-10800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-5200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-5100</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2059,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2127,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,31 +2330,34 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="E32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-900</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2302,14 +2372,14 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2322,8 +2392,8 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
+      <c r="V32" s="3">
+        <v>0</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
@@ -2331,76 +2401,82 @@
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-34200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-30200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-30700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-35300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-32900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-24500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-28400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-24600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-16300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-14200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-18800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-10800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-5200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-5100</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-34200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-30200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-30700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-35300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-32900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-24500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-28400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-24600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-16300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-14200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-18800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-10800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-5200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-5100</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2660,56 +2746,57 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E41" s="3">
         <v>38000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>63200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>48800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>49100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>66400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>159100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>363700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>385100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>410000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>429900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>434200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>259500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>98100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>105000</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2728,32 +2815,35 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>170400</v>
+      </c>
+      <c r="E42" s="3">
         <v>174800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>164800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>217400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>235900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>247000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>157500</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2769,8 +2859,8 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2796,31 +2886,34 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2835,17 +2928,17 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>500</v>
       </c>
       <c r="Q43" s="3">
+        <v>500</v>
+      </c>
+      <c r="R43" s="3">
         <v>1200</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2864,8 +2957,11 @@
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2932,56 +3028,59 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6700</v>
+        <v>8500</v>
       </c>
       <c r="E45" s="3">
-        <v>4600</v>
+        <v>6200</v>
       </c>
       <c r="F45" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G45" s="3">
         <v>4800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1200</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3000,56 +3099,59 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>199100</v>
+      </c>
+      <c r="E46" s="3">
         <v>219600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>232500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>271000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>290800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>316800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>321500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>367000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>389000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>412300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>432300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>436000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>262400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>100700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>107400</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3068,32 +3170,35 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E47" s="3">
         <v>11600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>28200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>16700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>8200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>10900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>25100</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3109,8 +3214,8 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -3136,56 +3241,59 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E48" s="3">
         <v>9100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>3400</v>
       </c>
       <c r="K48" s="3">
         <v>3400</v>
       </c>
       <c r="L48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M48" s="3">
         <v>200</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
       <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
       <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
         <v>800</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3204,8 +3312,11 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3272,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,56 +3525,59 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E52" s="3">
         <v>5700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>10100</v>
       </c>
       <c r="I52" s="3">
         <v>10100</v>
       </c>
       <c r="J52" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K52" s="3">
         <v>9800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>500</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>2400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>200</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3476,8 +3596,11 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,56 +3667,59 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>220100</v>
+      </c>
+      <c r="E54" s="3">
         <v>245900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>278100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>306500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>317700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>346000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>363700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>380200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>399700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>421300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>432900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>436100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>262400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>103100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>108400</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3612,8 +3738,11 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,56 +3794,57 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7400</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
         <v>1400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2000</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3732,22 +3863,25 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>400</v>
       </c>
       <c r="H58" s="3">
         <v>400</v>
@@ -3765,23 +3899,23 @@
         <v>400</v>
       </c>
       <c r="M58" s="3">
+        <v>400</v>
+      </c>
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3">
         <v>2600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>900</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3800,56 +3934,59 @@
       <c r="X58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E59" s="3">
         <v>13500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>20000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>19000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,56 +4005,59 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E60" s="3">
         <v>17600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>21900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>28300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>25200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>24000</v>
-      </c>
-      <c r="I60" s="3">
-        <v>15300</v>
       </c>
       <c r="J60" s="3">
         <v>15300</v>
       </c>
       <c r="K60" s="3">
+        <v>15300</v>
+      </c>
+      <c r="L60" s="3">
         <v>12500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4000</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3936,56 +4076,59 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="E61" s="3">
         <v>9500</v>
       </c>
       <c r="F61" s="3">
+        <v>9500</v>
+      </c>
+      <c r="G61" s="3">
         <v>9400</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>100</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>3200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4700</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4004,56 +4147,59 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E62" s="3">
         <v>6200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>200</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
       <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
         <v>800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>600</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4072,8 +4218,11 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4208,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,56 +4431,59 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E66" s="3">
         <v>33200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>37800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>43000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>30700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>29700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>20100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>17100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9300</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4344,8 +4502,11 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4548,13 +4716,13 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="3">
         <v>175000</v>
       </c>
       <c r="R70" s="3">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="S70" s="3">
         <v>0</v>
@@ -4574,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,56 +4813,59 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-440800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-389800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-355700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-325500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-294800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-259400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-226500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-202000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-173500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-149000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-132700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-118500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-99700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-89600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-78200</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4710,8 +4884,11 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,56 +5097,59 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>168800</v>
+      </c>
+      <c r="E76" s="3">
         <v>212700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>240400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>263500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>287000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>316300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>343600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>363000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>385200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>405000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>418500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>429800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>252000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-84400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-75900</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4982,8 +5168,11 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-34200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-30200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-30700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-35300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-32900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-24500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-28400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-24600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-16300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-14200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-18800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-10800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-5200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-5100</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5229,7 +5428,7 @@
         <v>200</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -5241,7 +5440,7 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -5259,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
@@ -5276,8 +5475,8 @@
       <c r="U83" s="3">
         <v>100</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
+      <c r="V83" s="3">
+        <v>100</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
@@ -5285,8 +5484,11 @@
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-31700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-27800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-20700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-30900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-17000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-20700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-17500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-24900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-20600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-13600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-9500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-9000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-3200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-4300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-3900</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,38 +5939,39 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -5767,28 +5988,31 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,38 +6150,41 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E94" s="3">
         <v>6200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>42300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>10900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>13700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-76100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-183900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -5962,37 +6192,40 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>600</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6085,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,67 +6532,70 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>9500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>188400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>170300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>105000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>5900</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>9400</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
+      <c r="V100" s="3">
+        <v>0</v>
       </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
@@ -6357,8 +6603,11 @@
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6425,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-25200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>14400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-17300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-92700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-204500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-21500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-24800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-19900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>174700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>161400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>96000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-4000</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
